--- a/data/cruceta.xlsx
+++ b/data/cruceta.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,20 +457,25 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>04dec2025</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>27nov2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>28nov2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>29nov2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>30nov2025</t>
         </is>
@@ -492,15 +497,18 @@
         <v>11</v>
       </c>
       <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
         <v>16</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>22</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>24</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>15</v>
       </c>
     </row>
@@ -520,15 +528,18 @@
         <v>11</v>
       </c>
       <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="n">
         <v>15</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>19</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>25</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>17</v>
       </c>
     </row>
@@ -548,15 +559,18 @@
         <v>9</v>
       </c>
       <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="n">
         <v>17</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>18</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>38</v>
       </c>
     </row>
@@ -576,15 +590,18 @@
         <v>12</v>
       </c>
       <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
         <v>20</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>25</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>19</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>15</v>
       </c>
     </row>
@@ -604,15 +621,18 @@
         <v>11</v>
       </c>
       <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
         <v>15</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>20</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>22</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>25</v>
       </c>
     </row>
@@ -632,15 +652,18 @@
         <v>8</v>
       </c>
       <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
         <v>20</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>22</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>20</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>15</v>
       </c>
     </row>
@@ -660,15 +683,18 @@
         <v>12</v>
       </c>
       <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="n">
         <v>15</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>17</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>30</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>18</v>
       </c>
     </row>
@@ -688,7 +714,7 @@
         <v>11</v>
       </c>
       <c r="E9" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
         <v>21</v>
@@ -697,6 +723,9 @@
         <v>21</v>
       </c>
       <c r="H9" t="n">
+        <v>21</v>
+      </c>
+      <c r="I9" t="n">
         <v>15</v>
       </c>
     </row>
@@ -716,17 +745,20 @@
         <v>12</v>
       </c>
       <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="n">
         <v>17</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>19</v>
-      </c>
-      <c r="G10" t="n">
-        <v>15</v>
       </c>
       <c r="H10" t="n">
         <v>15</v>
       </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -744,15 +776,18 @@
         <v>11</v>
       </c>
       <c r="E11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" t="n">
         <v>20</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>17</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>19</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>16</v>
       </c>
     </row>
@@ -767,7 +802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,20 +833,25 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>04dec2025</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>27nov2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>28nov2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>29nov2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>30nov2025</t>
         </is>
@@ -840,20 +880,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
@@ -882,20 +927,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>17</t>
         </is>
@@ -924,16 +974,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
         <is>
           <t>38</t>
         </is>
@@ -962,20 +1017,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
@@ -1004,20 +1064,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>25</t>
         </is>
@@ -1046,20 +1111,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
@@ -1088,20 +1158,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>18</t>
         </is>
@@ -1130,20 +1205,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
@@ -1172,20 +1252,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
@@ -1214,20 +1299,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
